--- a/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>15929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9514</v>
+        <v>9237</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25854</v>
+        <v>25547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01545182999005365</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009229367520662011</v>
+        <v>0.008960744490961941</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02507973668195781</v>
+        <v>0.02478270716324629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -764,19 +764,19 @@
         <v>15292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8774</v>
+        <v>8581</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24550</v>
+        <v>24282</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01162784893129453</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006671786666280345</v>
+        <v>0.006525133228853146</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01866754756238891</v>
+        <v>0.01846358808539607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -785,19 +785,19 @@
         <v>31221</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21709</v>
+        <v>21184</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42712</v>
+        <v>43970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0133081660248328</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009253554682069906</v>
+        <v>0.009029866605133746</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01820644497677342</v>
+        <v>0.01874288548131433</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>82943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67117</v>
+        <v>66138</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100456</v>
+        <v>101175</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08046040150224511</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06510792833072952</v>
+        <v>0.06415874496059025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09744926845926868</v>
+        <v>0.09814705156903165</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -835,19 +835,19 @@
         <v>81547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65332</v>
+        <v>67087</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100345</v>
+        <v>98459</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0620079549001676</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04967771844188578</v>
+        <v>0.05101255519891509</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0763012035427796</v>
+        <v>0.07486708339534436</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>164</v>
@@ -856,19 +856,19 @@
         <v>164490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>140274</v>
+        <v>140540</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>191310</v>
+        <v>192437</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07011624857804853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05979356085636593</v>
+        <v>0.05990712442416871</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08154844098067281</v>
+        <v>0.08202890126134904</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>479428</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>444219</v>
+        <v>445186</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>511548</v>
+        <v>508904</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4650777517024502</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4309233003788007</v>
+        <v>0.4318614020092288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4962370938458895</v>
+        <v>0.4936713185821186</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>672</v>
@@ -906,19 +906,19 @@
         <v>684592</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>648575</v>
+        <v>650891</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>719998</v>
+        <v>720234</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5205575536018183</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4931706073474044</v>
+        <v>0.4949313286674896</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5474798279339292</v>
+        <v>0.5476590825024702</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1150</v>
@@ -927,19 +927,19 @@
         <v>1164019</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1115888</v>
+        <v>1114945</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1215842</v>
+        <v>1211105</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4961788608088483</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4756622984473342</v>
+        <v>0.4752604054173906</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5182691691034921</v>
+        <v>0.5162498448900726</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>419342</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>388583</v>
+        <v>387016</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>449787</v>
+        <v>451754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4067900402271026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3769524739834064</v>
+        <v>0.3754317937230262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.436324391849281</v>
+        <v>0.4382327918570719</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>486</v>
@@ -977,19 +977,19 @@
         <v>497336</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>465210</v>
+        <v>462737</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>533544</v>
+        <v>531696</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3781700195192437</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3537411806566315</v>
+        <v>0.3518607968209347</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4057023114592829</v>
+        <v>0.4042968976447144</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>910</v>
@@ -998,19 +998,19 @@
         <v>916677</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>870177</v>
+        <v>870491</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>963866</v>
+        <v>962920</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3907461043046741</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3709245624653698</v>
+        <v>0.3710584350168942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4108606869660478</v>
+        <v>0.410457806635609</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>33214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24444</v>
+        <v>23684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46946</v>
+        <v>45154</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03221997657814837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02371280368404955</v>
+        <v>0.02297518271591553</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04554048486034309</v>
+        <v>0.04380199771246283</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -1048,19 +1048,19 @@
         <v>36345</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26071</v>
+        <v>24451</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50037</v>
+        <v>48547</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02763662304747583</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01982383020522174</v>
+        <v>0.01859231529137454</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03804751840851618</v>
+        <v>0.03691506508665526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>72</v>
@@ -1069,19 +1069,19 @@
         <v>69559</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>55290</v>
+        <v>55590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90311</v>
+        <v>87627</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02965062028359634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02356824507777049</v>
+        <v>0.02369604552910327</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03849621314903206</v>
+        <v>0.03735197803049514</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>29764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20558</v>
+        <v>19609</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42900</v>
+        <v>43352</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01757640703979049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01214014641620391</v>
+        <v>0.01157931894843943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02533322479358798</v>
+        <v>0.02560042374692399</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1194,19 +1194,19 @@
         <v>33509</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23815</v>
+        <v>23214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46299</v>
+        <v>46692</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02113293011978186</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01501949884075405</v>
+        <v>0.01464046905535093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02919945771772858</v>
+        <v>0.02944742281666934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1215,19 +1215,19 @@
         <v>63273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48980</v>
+        <v>48186</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82161</v>
+        <v>79963</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01929621082813801</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01493745891166339</v>
+        <v>0.01469519884410808</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02505655374169456</v>
+        <v>0.02438608004396217</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>145362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125688</v>
+        <v>124797</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170110</v>
+        <v>170517</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08583945562330675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07422141075989103</v>
+        <v>0.07369559015310369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1004538300837826</v>
+        <v>0.1006940351708557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -1265,19 +1265,19 @@
         <v>129678</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108060</v>
+        <v>108409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151343</v>
+        <v>153705</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0817836508707763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06815014979983071</v>
+        <v>0.06837035591502301</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0954473415544322</v>
+        <v>0.09693669205835247</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>269</v>
@@ -1286,19 +1286,19 @@
         <v>275039</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>240717</v>
+        <v>243394</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>307174</v>
+        <v>308366</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08387821757667592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07341097075339958</v>
+        <v>0.07422752402570366</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09367825817109218</v>
+        <v>0.09404191732223208</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>879660</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>838760</v>
+        <v>838202</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>922304</v>
+        <v>918407</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5194599978650617</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4953071949907735</v>
+        <v>0.4949776842274049</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5446423501084833</v>
+        <v>0.5423409017711388</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>849</v>
@@ -1336,19 +1336,19 @@
         <v>868120</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>831729</v>
+        <v>829218</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>910170</v>
+        <v>911040</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5474960735405549</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5245456130061359</v>
+        <v>0.5229617054593049</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5740154459012711</v>
+        <v>0.5745645321476541</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1703</v>
@@ -1357,19 +1357,19 @@
         <v>1747780</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1694943</v>
+        <v>1686836</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1809500</v>
+        <v>1803771</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.533017213176941</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5169035833365934</v>
+        <v>0.5144309387242161</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5518396097433701</v>
+        <v>0.5500925623897787</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>607156</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>565887</v>
+        <v>570549</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>647857</v>
+        <v>646487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3585395717733018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3341692864176755</v>
+        <v>0.3369222426500458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3825744493838933</v>
+        <v>0.3817656303448662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>506</v>
@@ -1407,19 +1407,19 @@
         <v>514144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>476622</v>
+        <v>475708</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>547842</v>
+        <v>549911</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3242546775709418</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3005902543436824</v>
+        <v>0.3000140769369283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3455065578254741</v>
+        <v>0.3468114921454559</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1100</v>
@@ -1428,19 +1428,19 @@
         <v>1121300</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1064724</v>
+        <v>1070580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1171892</v>
+        <v>1180991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3419606575905051</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3247067111611934</v>
+        <v>0.3264926155938137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.357389626475428</v>
+        <v>0.3601644721883545</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>31471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20631</v>
+        <v>21532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44466</v>
+        <v>45124</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01858456769853929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01218326952812154</v>
+        <v>0.01271488952268069</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02625815434490054</v>
+        <v>0.02664685052922546</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -1478,19 +1478,19 @@
         <v>40168</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29598</v>
+        <v>28264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54628</v>
+        <v>53270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0253326678979452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01866621379490794</v>
+        <v>0.01782508282988555</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03445200789207872</v>
+        <v>0.03359587048610654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -1499,19 +1499,19 @@
         <v>71639</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55653</v>
+        <v>57346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90631</v>
+        <v>93459</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02184770082774005</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0169723221262833</v>
+        <v>0.01748856597549676</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02763953962676485</v>
+        <v>0.02850201561948694</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>6218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2663</v>
+        <v>1926</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14052</v>
+        <v>12969</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01127669180299147</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004829607547496655</v>
+        <v>0.003492884796889485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02548303489084019</v>
+        <v>0.02351993100123656</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1624,19 +1624,19 @@
         <v>11517</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5835</v>
+        <v>6003</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20833</v>
+        <v>20337</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0241752101567885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0122468946399332</v>
+        <v>0.01259991366778153</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04372870662452428</v>
+        <v>0.04268757700049279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1645,19 +1645,19 @@
         <v>17735</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10239</v>
+        <v>10323</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28380</v>
+        <v>28311</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0172553717239562</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009961529486503985</v>
+        <v>0.01004374732323964</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02761191420005406</v>
+        <v>0.0275448400231265</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>57873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44877</v>
+        <v>44858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74813</v>
+        <v>73303</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1049552601930607</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08138601665033787</v>
+        <v>0.08135246103057531</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1356769385197585</v>
+        <v>0.1329379840935148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -1695,19 +1695,19 @@
         <v>34395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24381</v>
+        <v>23945</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47585</v>
+        <v>47116</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0721957894966183</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05117532834178487</v>
+        <v>0.05026138774548572</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09988266855617031</v>
+        <v>0.09889858826741611</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -1716,19 +1716,19 @@
         <v>92268</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75467</v>
+        <v>75088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>111753</v>
+        <v>110777</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08977069524521174</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07342470323647145</v>
+        <v>0.07305547669764267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1087280154778671</v>
+        <v>0.1077784580741747</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>268899</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>244936</v>
+        <v>245724</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>291520</v>
+        <v>292362</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4876591872415074</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4442001984731875</v>
+        <v>0.4456303566222435</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5286834384763935</v>
+        <v>0.530210358767542</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>268</v>
@@ -1766,19 +1766,19 @@
         <v>278873</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>258847</v>
+        <v>256870</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>301731</v>
+        <v>297832</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5853602148563289</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5433266468208987</v>
+        <v>0.5391759973453893</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6333396848299691</v>
+        <v>0.6251556831867821</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>526</v>
@@ -1787,19 +1787,19 @@
         <v>547772</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>515001</v>
+        <v>512954</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>580673</v>
+        <v>579915</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5329452546824551</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5010616120698345</v>
+        <v>0.4990701002237891</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5649563020982935</v>
+        <v>0.5642180840651942</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>207334</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>183718</v>
+        <v>183211</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>228834</v>
+        <v>231330</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3760078132265657</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3331803785807131</v>
+        <v>0.3322594951678539</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4149990336108658</v>
+        <v>0.4195265591197558</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>135</v>
@@ -1837,19 +1837,19 @@
         <v>144468</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>125592</v>
+        <v>125484</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>165255</v>
+        <v>166054</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.303240990957812</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2636214152717303</v>
+        <v>0.2633937181241768</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3468735306979801</v>
+        <v>0.3485516996166272</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>328</v>
@@ -1858,19 +1858,19 @@
         <v>351801</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>320791</v>
+        <v>323359</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>383647</v>
+        <v>387311</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3422791687979955</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3121079178670884</v>
+        <v>0.3146068311933116</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3732623922411646</v>
+        <v>0.3768272397948627</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>11084</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5380</v>
+        <v>5141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19533</v>
+        <v>20027</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02010104753587479</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009757140797256389</v>
+        <v>0.009324286935583112</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03542357109115791</v>
+        <v>0.03632044713561112</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1908,19 +1908,19 @@
         <v>7159</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3015</v>
+        <v>3019</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14455</v>
+        <v>13677</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0150277945324523</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006328274764079941</v>
+        <v>0.006336914603148285</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0303422403949753</v>
+        <v>0.02870757073850225</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1929,19 +1929,19 @@
         <v>18243</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10675</v>
+        <v>10461</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29912</v>
+        <v>29285</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0177495095503815</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01038654205794189</v>
+        <v>0.01017737329072691</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02910192117592985</v>
+        <v>0.02849269985287216</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>51911</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39037</v>
+        <v>37643</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68472</v>
+        <v>68315</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01584734574941803</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01191726442446997</v>
+        <v>0.01149161016342102</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02090317902822314</v>
+        <v>0.02085513244490594</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -2054,19 +2054,19 @@
         <v>60318</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47271</v>
+        <v>46006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77297</v>
+        <v>77131</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01786067506567341</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0139972618678741</v>
+        <v>0.01362282098428767</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02288835510466079</v>
+        <v>0.02283927043984476</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>109</v>
@@ -2075,19 +2075,19 @@
         <v>112229</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93791</v>
+        <v>90767</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136483</v>
+        <v>133950</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01686936396392263</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01409786119599986</v>
+        <v>0.01364343268477583</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02051499133020116</v>
+        <v>0.02013434686360772</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>286178</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>254690</v>
+        <v>258549</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>318929</v>
+        <v>321736</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08736450989330419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07775184364621651</v>
+        <v>0.07892999155717424</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09736284358319373</v>
+        <v>0.09821966027920076</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>239</v>
@@ -2125,19 +2125,19 @@
         <v>245620</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>215320</v>
+        <v>214161</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>278317</v>
+        <v>275870</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07273013074753754</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06375801291122163</v>
+        <v>0.06341470763790923</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08241192725602278</v>
+        <v>0.08168737625759134</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>525</v>
@@ -2146,19 +2146,19 @@
         <v>531798</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>488727</v>
+        <v>487217</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>578905</v>
+        <v>577106</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07993571922096761</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07346163511457601</v>
+        <v>0.0732346391929697</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08701645400942626</v>
+        <v>0.08674613825890001</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>1627987</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1565253</v>
+        <v>1570884</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1682502</v>
+        <v>1688546</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4969927473070286</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4778413053036529</v>
+        <v>0.4795604057067101</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.513635109445832</v>
+        <v>0.5154804084198057</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1789</v>
@@ -2196,19 +2196,19 @@
         <v>1831584</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1773174</v>
+        <v>1775815</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1891223</v>
+        <v>1892097</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5423472633773438</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5250515715930664</v>
+        <v>0.5258336284873716</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5600066663961318</v>
+        <v>0.5602654933590866</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3379</v>
@@ -2217,19 +2217,19 @@
         <v>3459572</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3373466</v>
+        <v>3375119</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3533278</v>
+        <v>3536650</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5200158767869671</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5070731192098067</v>
+        <v>0.5073215824681397</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.531094882562623</v>
+        <v>0.5316017223687479</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>1233830</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1177957</v>
+        <v>1180609</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1291934</v>
+        <v>1291375</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3766644918517888</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3596072849188576</v>
+        <v>0.3604171656776102</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3944024070289592</v>
+        <v>0.3942316964802675</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1127</v>
@@ -2267,19 +2267,19 @@
         <v>1155948</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1102286</v>
+        <v>1096686</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1215914</v>
+        <v>1210634</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3422857690315117</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3263961402719234</v>
+        <v>0.3247377032180112</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.360042217679895</v>
+        <v>0.3584788786897924</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2338</v>
@@ -2288,19 +2288,19 @@
         <v>2389779</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2313004</v>
+        <v>2315429</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2464563</v>
+        <v>2475920</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3592129598892594</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3476727167354242</v>
+        <v>0.3480372183141913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3704539021998582</v>
+        <v>0.3721610612407266</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>75769</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>59937</v>
+        <v>60009</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94124</v>
+        <v>94449</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02313090519846038</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01829772799806634</v>
+        <v>0.01831969795633119</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02873437173406106</v>
+        <v>0.02883350476235349</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>82</v>
@@ -2338,19 +2338,19 @@
         <v>83673</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>68620</v>
+        <v>68060</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103209</v>
+        <v>103210</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02477616177793356</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02031889311405933</v>
+        <v>0.02015311564697445</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03056098081269965</v>
+        <v>0.03056135823693596</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>157</v>
@@ -2359,19 +2359,19 @@
         <v>159442</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>134947</v>
+        <v>134651</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>185901</v>
+        <v>183558</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02396608013888321</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02028417487863406</v>
+        <v>0.02023962330641614</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02794323958271027</v>
+        <v>0.02759103606369397</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>11952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6116</v>
+        <v>6820</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20731</v>
+        <v>21570</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01232705427629116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006307975604928872</v>
+        <v>0.007034081446950674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02138188109476228</v>
+        <v>0.02224734094301007</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2723,19 +2723,19 @@
         <v>13484</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7412</v>
+        <v>7287</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22085</v>
+        <v>22344</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01010231197399376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005553329579300976</v>
+        <v>0.005459694997377719</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01654611434997052</v>
+        <v>0.01674057842502106</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2744,19 +2744,19 @@
         <v>25435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16578</v>
+        <v>17121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36611</v>
+        <v>37723</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01103839342085947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007194351758158553</v>
+        <v>0.007430058135665911</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01588847572036762</v>
+        <v>0.01637070622183279</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>107502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87380</v>
+        <v>87313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127827</v>
+        <v>130069</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1108789359197839</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09012441617553305</v>
+        <v>0.09005513917739755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1318427471409259</v>
+        <v>0.134154358662482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -2794,19 +2794,19 @@
         <v>101628</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81569</v>
+        <v>82986</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121816</v>
+        <v>122257</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07614163977739194</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06111246520051803</v>
+        <v>0.0621746471586123</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09126673853473052</v>
+        <v>0.09159724427473311</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>192</v>
@@ -2815,19 +2815,19 @@
         <v>209130</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>183000</v>
+        <v>181216</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>241540</v>
+        <v>239173</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09075768694815592</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07941746791481914</v>
+        <v>0.0786434670127447</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1048227035510658</v>
+        <v>0.1037955376570917</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>524123</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>494390</v>
+        <v>488323</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>562579</v>
+        <v>552885</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5405869837645815</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5099194323517091</v>
+        <v>0.5036617366888101</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5802502099247019</v>
+        <v>0.5702515736649045</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>670</v>
@@ -2865,19 +2865,19 @@
         <v>719002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>681643</v>
+        <v>683495</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>757008</v>
+        <v>757571</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5386882231515455</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5106981435407637</v>
+        <v>0.5120856244107398</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5671625977128393</v>
+        <v>0.5675844068721621</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1165</v>
@@ -2886,19 +2886,19 @@
         <v>1243126</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1191556</v>
+        <v>1190528</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1290686</v>
+        <v>1291836</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5394871447075689</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.517107067260502</v>
+        <v>0.5166608235666302</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5601273389963919</v>
+        <v>0.5606263042207337</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>302520</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>267824</v>
+        <v>272813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>329603</v>
+        <v>329351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3120226876007124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2762365712235959</v>
+        <v>0.2813820979604537</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.339956120109523</v>
+        <v>0.3396967459527256</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>433</v>
@@ -2936,19 +2936,19 @@
         <v>465009</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>431930</v>
+        <v>426391</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>501745</v>
+        <v>496202</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3483920499235749</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3236088445092486</v>
+        <v>0.3194591190503397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3759155848368553</v>
+        <v>0.3717628500690646</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>711</v>
@@ -2957,19 +2957,19 @@
         <v>767529</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>721437</v>
+        <v>722755</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>816078</v>
+        <v>817618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3330892954114627</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3130864842679495</v>
+        <v>0.3136585110901397</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3541584872984816</v>
+        <v>0.3548270501681866</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>23448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14864</v>
+        <v>14549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35247</v>
+        <v>35029</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02418433843863108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01533051508412519</v>
+        <v>0.01500592084945833</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03635410464794719</v>
+        <v>0.03612902348890073</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -3007,19 +3007,19 @@
         <v>35605</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24719</v>
+        <v>25411</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48079</v>
+        <v>49078</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0266757751734939</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01851990751878063</v>
+        <v>0.01903863320632219</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03602187313823071</v>
+        <v>0.03677020838616633</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -3028,19 +3028,19 @@
         <v>59053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>44637</v>
+        <v>44719</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>75964</v>
+        <v>76392</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02562747951195304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01937119149781086</v>
+        <v>0.01940693013981622</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03296647251626452</v>
+        <v>0.03315226659881521</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>30162</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19437</v>
+        <v>20972</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42360</v>
+        <v>44174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01537359896771017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009907246627544202</v>
+        <v>0.0106894939713698</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02159118083960518</v>
+        <v>0.02251531057305479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -3153,19 +3153,19 @@
         <v>27708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18319</v>
+        <v>18458</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39043</v>
+        <v>41228</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0157972865906205</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01044468719279455</v>
+        <v>0.01052344836930737</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02226034412067296</v>
+        <v>0.02350614074552896</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -3174,19 +3174,19 @@
         <v>57870</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42507</v>
+        <v>43269</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73281</v>
+        <v>76015</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01557358499878172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01143938528576756</v>
+        <v>0.01164424691032613</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01972092933761547</v>
+        <v>0.0204566806161376</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>193642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>166898</v>
+        <v>169905</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>220978</v>
+        <v>225203</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09869934330615811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08506831261441956</v>
+        <v>0.08660049893508348</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1126328001007602</v>
+        <v>0.1147859937857371</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -3224,19 +3224,19 @@
         <v>127177</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106683</v>
+        <v>106191</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148599</v>
+        <v>151501</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07250923111434567</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06082464819939074</v>
+        <v>0.06054410167805871</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08472300001051848</v>
+        <v>0.08637756915329856</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>303</v>
@@ -3245,19 +3245,19 @@
         <v>320819</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>288126</v>
+        <v>290335</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>361237</v>
+        <v>358019</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08633727203633627</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07753912377460526</v>
+        <v>0.07813365368894523</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0972144564621623</v>
+        <v>0.09634833961115662</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>1001871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>954743</v>
+        <v>956201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1048567</v>
+        <v>1049739</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.510654339520596</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4866331773769553</v>
+        <v>0.4873767150435327</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5344555590663448</v>
+        <v>0.5350529993700359</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>849</v>
@@ -3295,19 +3295,19 @@
         <v>906782</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>863996</v>
+        <v>863733</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>954378</v>
+        <v>949026</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5169968307740815</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4926022241181242</v>
+        <v>0.4924523947286534</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5441331771846927</v>
+        <v>0.5410815987857853</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1799</v>
@@ -3316,19 +3316,19 @@
         <v>1908653</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1845195</v>
+        <v>1850194</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1972699</v>
+        <v>1972842</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5136480773224646</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4965706169672814</v>
+        <v>0.4979158462196738</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5308838731411033</v>
+        <v>0.5309222159089479</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>672704</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>627951</v>
+        <v>631116</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>714836</v>
+        <v>723679</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3428778756440169</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3200672444646166</v>
+        <v>0.3216805565505235</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3643526514204161</v>
+        <v>0.3688598214596882</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>595</v>
@@ -3366,19 +3366,19 @@
         <v>645929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>603027</v>
+        <v>602951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>690052</v>
+        <v>684579</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3682730083978311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3438123908167525</v>
+        <v>0.3437692117450005</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3934291476755193</v>
+        <v>0.3903085801500785</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1229</v>
@@ -3387,19 +3387,19 @@
         <v>1318634</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1256619</v>
+        <v>1262175</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1379534</v>
+        <v>1378590</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3548647063498198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3381754975914743</v>
+        <v>0.3396708588752239</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3712538243617595</v>
+        <v>0.3709999729497961</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>63557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49619</v>
+        <v>48638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82375</v>
+        <v>82139</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0323948425615188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02529060298617744</v>
+        <v>0.02479070250834604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04198645576652232</v>
+        <v>0.04186625280945962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -3437,19 +3437,19 @@
         <v>46346</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35294</v>
+        <v>33809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62124</v>
+        <v>61984</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0264236431231212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02012284857515472</v>
+        <v>0.01927619557741743</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03541943401423246</v>
+        <v>0.03533972134503478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>101</v>
@@ -3458,19 +3458,19 @@
         <v>109902</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90631</v>
+        <v>90207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>133091</v>
+        <v>133033</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02957635929259765</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02439022153385412</v>
+        <v>0.02427618956877447</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03581685284302224</v>
+        <v>0.03580125445167528</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>6245</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1835</v>
+        <v>1849</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16637</v>
+        <v>15416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01297803032158552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003814468842681032</v>
+        <v>0.003843468563523947</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03457522561046699</v>
+        <v>0.03203842307709896</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3583,19 +3583,19 @@
         <v>4855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1911</v>
+        <v>1926</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10802</v>
+        <v>10772</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01063255857627498</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004184373356562215</v>
+        <v>0.004216819099753503</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02365661980029267</v>
+        <v>0.02358940022664181</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -3604,19 +3604,19 @@
         <v>11100</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4817</v>
+        <v>4893</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22159</v>
+        <v>21370</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01183599217885837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005136278510979357</v>
+        <v>0.005217424372719899</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02362869937791797</v>
+        <v>0.02278663414321866</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>25697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17353</v>
+        <v>17318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38450</v>
+        <v>38790</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05340405578685205</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0360633014133423</v>
+        <v>0.03599061371975933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07990773822558697</v>
+        <v>0.08061465406290989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -3654,19 +3654,19 @@
         <v>30416</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19285</v>
+        <v>20528</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42401</v>
+        <v>44542</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06660952793070717</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04223346381840563</v>
+        <v>0.04495589124860287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09285605829677399</v>
+        <v>0.09754476076440262</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -3675,19 +3675,19 @@
         <v>56113</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42891</v>
+        <v>42599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>72981</v>
+        <v>71114</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05983395753738741</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04573502561274411</v>
+        <v>0.04542337682216913</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07782035755953086</v>
+        <v>0.07582908365323354</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>251109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>227417</v>
+        <v>224936</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>274467</v>
+        <v>274624</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5218594068936816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.472621987625245</v>
+        <v>0.4674674470826926</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5704033593876842</v>
+        <v>0.5707285979941402</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>201</v>
@@ -3725,19 +3725,19 @@
         <v>224935</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>201092</v>
+        <v>202257</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>245950</v>
+        <v>248131</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4925944586395702</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4403809486573722</v>
+        <v>0.4429312315497643</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5386166705245601</v>
+        <v>0.5433929742782606</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>433</v>
@@ -3746,19 +3746,19 @@
         <v>476044</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>443444</v>
+        <v>443739</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>507422</v>
+        <v>510439</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5076099548514842</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4728485630990923</v>
+        <v>0.4731636159652586</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5410687355765339</v>
+        <v>0.5442861965840201</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>191058</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>166562</v>
+        <v>169460</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>213391</v>
+        <v>215848</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3970598034656096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3461529568472343</v>
+        <v>0.3521757409694348</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4434726477835252</v>
+        <v>0.4485806231610695</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>160</v>
@@ -3796,19 +3796,19 @@
         <v>177413</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>156311</v>
+        <v>154888</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>200280</v>
+        <v>201166</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3885241058810272</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3423117865059357</v>
+        <v>0.3391963376338628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4386026259685453</v>
+        <v>0.4405422186199961</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>330</v>
@@ -3817,19 +3817,19 @@
         <v>368471</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>337999</v>
+        <v>337041</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>400229</v>
+        <v>399699</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3929036705955944</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3604115387662756</v>
+        <v>0.359390171663091</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4267677820453283</v>
+        <v>0.4262025536712788</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>7073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2928</v>
+        <v>2975</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13950</v>
+        <v>14188</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01469870353227123</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00608431700582886</v>
+        <v>0.006181866358369726</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02899046408452046</v>
+        <v>0.02948559878339678</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -3867,19 +3867,19 @@
         <v>19014</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11977</v>
+        <v>11186</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31442</v>
+        <v>30047</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04163934897242044</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02622977112104749</v>
+        <v>0.02449690869018296</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06885562951438934</v>
+        <v>0.06580091889252682</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -3888,19 +3888,19 @@
         <v>26087</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16175</v>
+        <v>16451</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39305</v>
+        <v>39028</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02781642483667566</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01724788687389868</v>
+        <v>0.01754141864601947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04191161346431527</v>
+        <v>0.04161640108999216</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>48358</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35275</v>
+        <v>35290</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65511</v>
+        <v>66273</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01417029615615683</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01033652113102101</v>
+        <v>0.01034100946202185</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01919660072733708</v>
+        <v>0.01941966835578432</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -4013,19 +4013,19 @@
         <v>46047</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33766</v>
+        <v>33609</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60384</v>
+        <v>60618</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0129880403868851</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009524174364013286</v>
+        <v>0.009479796527312123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01703217311930671</v>
+        <v>0.01709823253031617</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -4034,19 +4034,19 @@
         <v>94405</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77290</v>
+        <v>77408</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>118969</v>
+        <v>118595</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01356789939778683</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01110809735552877</v>
+        <v>0.01112512012339909</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01709825110881159</v>
+        <v>0.01704442561680389</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>326841</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>290022</v>
+        <v>292774</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>363066</v>
+        <v>363699</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09577300836477176</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08498417919233679</v>
+        <v>0.08579055918862588</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1063878034032779</v>
+        <v>0.1065735035899648</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>242</v>
@@ -4084,19 +4084,19 @@
         <v>259221</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>227824</v>
+        <v>232028</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>292130</v>
+        <v>293451</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07311687436529804</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06426074979300421</v>
+        <v>0.06544659692337777</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08239910110349392</v>
+        <v>0.08277170224531404</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>548</v>
@@ -4105,19 +4105,19 @@
         <v>586062</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>542066</v>
+        <v>536409</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>637314</v>
+        <v>633808</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08422899053613676</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07790579869195452</v>
+        <v>0.07709284476547415</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09159493502893495</v>
+        <v>0.09109095221561292</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>1777103</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1723078</v>
+        <v>1720839</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1847234</v>
+        <v>1840117</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5207381741112054</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5049075938233651</v>
+        <v>0.5042513596796167</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5412883637928919</v>
+        <v>0.5392030511559323</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1720</v>
@@ -4155,19 +4155,19 @@
         <v>1850720</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1790638</v>
+        <v>1791652</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1908968</v>
+        <v>1917948</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5220201494231818</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5050732743718271</v>
+        <v>0.5053593614791096</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5384498188163893</v>
+        <v>0.5409828745302108</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3397</v>
@@ -4176,19 +4176,19 @@
         <v>3627823</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3542982</v>
+        <v>3536448</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3717661</v>
+        <v>3709066</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5213913811348604</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5091979572575499</v>
+        <v>0.5082588825650438</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5343029466438719</v>
+        <v>0.5330675975334166</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>1166282</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1107813</v>
+        <v>1113200</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1223088</v>
+        <v>1225518</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3417514376436014</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3246184695066325</v>
+        <v>0.3261971748459389</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3583971839020779</v>
+        <v>0.3591093025795457</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1188</v>
@@ -4226,19 +4226,19 @@
         <v>1288351</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1232422</v>
+        <v>1219126</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1346697</v>
+        <v>1343344</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3633965963316951</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3476209711680593</v>
+        <v>0.3438707649446101</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3798537604602986</v>
+        <v>0.3789081482465479</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2270</v>
@@ -4247,19 +4247,19 @@
         <v>2454633</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2371118</v>
+        <v>2378973</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2543645</v>
+        <v>2533157</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3527803315318875</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3407775330934174</v>
+        <v>0.3419063913715853</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3655731773556415</v>
+        <v>0.3640657305355031</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>94077</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76298</v>
+        <v>76031</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>117545</v>
+        <v>116576</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02756708372426464</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02235745471073462</v>
+        <v>0.02227919330518581</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0344439346612281</v>
+        <v>0.03415974457636239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -4297,19 +4297,19 @@
         <v>100964</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>83039</v>
+        <v>81866</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>123823</v>
+        <v>123202</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02847833949294002</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0234223926994221</v>
+        <v>0.0230914400576146</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03492588801788666</v>
+        <v>0.03475089334458712</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>179</v>
@@ -4318,19 +4318,19 @@
         <v>195041</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>167265</v>
+        <v>168388</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>225136</v>
+        <v>226546</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02803139739932851</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02403931221085075</v>
+        <v>0.0242007904226928</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03235665661838145</v>
+        <v>0.0325592672590748</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>13152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7701</v>
+        <v>7315</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21426</v>
+        <v>21184</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01747884002893313</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01023419648864328</v>
+        <v>0.009721948762922048</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02847413523517072</v>
+        <v>0.02815285648829164</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4682,19 +4682,19 @@
         <v>13524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6653</v>
+        <v>7174</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22195</v>
+        <v>23703</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01364021053356262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006710104134212489</v>
+        <v>0.007235420433919545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02238579165052221</v>
+        <v>0.02390682487788874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -4703,19 +4703,19 @@
         <v>26676</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18193</v>
+        <v>18278</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38777</v>
+        <v>38168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01529647701999331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01043207932430483</v>
+        <v>0.01048079408248879</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0222350804225701</v>
+        <v>0.02188587682138236</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>66860</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51813</v>
+        <v>52643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84350</v>
+        <v>83446</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08885394214477291</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0688581199179395</v>
+        <v>0.06996001242373871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1120975072424873</v>
+        <v>0.1108963206388708</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -4753,19 +4753,19 @@
         <v>63546</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49454</v>
+        <v>47740</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82508</v>
+        <v>80611</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06409174119798941</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04987918424178089</v>
+        <v>0.04815061423742995</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08321755560827906</v>
+        <v>0.08130338776357017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>122</v>
@@ -4774,19 +4774,19 @@
         <v>130405</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>109505</v>
+        <v>109104</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>155208</v>
+        <v>154835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07477597201731757</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06279140707283261</v>
+        <v>0.06256183751159566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08899848082554095</v>
+        <v>0.08878425669249122</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>448835</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>423893</v>
+        <v>423603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>477729</v>
+        <v>473557</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5964849937031235</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5633382422867641</v>
+        <v>0.5629533605818188</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6348840945379863</v>
+        <v>0.6293400294695704</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>533</v>
@@ -4824,19 +4824,19 @@
         <v>594325</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>564740</v>
+        <v>561563</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>626613</v>
+        <v>626916</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5994328723613502</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5695937559906286</v>
+        <v>0.5663889391848933</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6319987409175064</v>
+        <v>0.6323042315054592</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>992</v>
@@ -4845,19 +4845,19 @@
         <v>1043160</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>999108</v>
+        <v>1004361</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1084713</v>
+        <v>1085195</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5981609411594528</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5729010646199519</v>
+        <v>0.5759134804962525</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6219881114637946</v>
+        <v>0.6222647448044143</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>210350</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>186782</v>
+        <v>186647</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>233790</v>
+        <v>234452</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2795473689183098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2482262686434938</v>
+        <v>0.2480469257376841</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3106990205736038</v>
+        <v>0.3115786087201183</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>263</v>
@@ -4895,19 +4895,19 @@
         <v>295100</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>265811</v>
+        <v>266148</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>324204</v>
+        <v>326105</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2976362372084844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2680951470153982</v>
+        <v>0.2684348657401245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3269906801605211</v>
+        <v>0.3289074815689765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>473</v>
@@ -4916,19 +4916,19 @@
         <v>505450</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>466882</v>
+        <v>465808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>547330</v>
+        <v>540617</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2898313718619831</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2677161060338484</v>
+        <v>0.2671002363828674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3138456379798309</v>
+        <v>0.3099963911950273</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>13270</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6939</v>
+        <v>7094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21393</v>
+        <v>21972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01763485520486065</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009221221553023582</v>
+        <v>0.009427586242328291</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02843088099809432</v>
+        <v>0.02920044892045308</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -4966,19 +4966,19 @@
         <v>24984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16138</v>
+        <v>16239</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37049</v>
+        <v>37418</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02519893869861338</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01627633819781344</v>
+        <v>0.01637882677142687</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03736775195204213</v>
+        <v>0.0377399226771262</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -4987,19 +4987,19 @@
         <v>38254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27144</v>
+        <v>27417</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53016</v>
+        <v>54124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02193523794125312</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01556476581062428</v>
+        <v>0.01572101407502034</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03039980281951929</v>
+        <v>0.03103527618965571</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>33765</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23196</v>
+        <v>23281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46948</v>
+        <v>47538</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01630633934591494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01120210342011688</v>
+        <v>0.0112432667293027</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02267274011973533</v>
+        <v>0.02295803574648679</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -5112,19 +5112,19 @@
         <v>27185</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18635</v>
+        <v>18582</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39442</v>
+        <v>39566</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01369962874251843</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009390902151784236</v>
+        <v>0.009364338894701507</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01987616235089891</v>
+        <v>0.01993860552437686</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -5133,19 +5133,19 @@
         <v>60950</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46267</v>
+        <v>47961</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80444</v>
+        <v>77703</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01503071678875254</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01140965624299716</v>
+        <v>0.0118274839437658</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01983800425583093</v>
+        <v>0.01916191552489079</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>214771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188100</v>
+        <v>186388</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>245978</v>
+        <v>247179</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1037207013650555</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09084046796185191</v>
+        <v>0.09001335346808123</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1187914090256468</v>
+        <v>0.1193714727829363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>190</v>
@@ -5183,19 +5183,19 @@
         <v>198056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174060</v>
+        <v>175481</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>227418</v>
+        <v>230672</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0998074607446159</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08771469925270677</v>
+        <v>0.0884309628993528</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1146036376847365</v>
+        <v>0.1162435332093271</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>390</v>
@@ -5204,19 +5204,19 @@
         <v>412828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>377159</v>
+        <v>375799</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>451871</v>
+        <v>453872</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1018057139473756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09300965425128584</v>
+        <v>0.09267433775837994</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.111433979262934</v>
+        <v>0.1119274454765452</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>1255656</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1210968</v>
+        <v>1210503</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1301834</v>
+        <v>1303586</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6064011932705909</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5848201768811869</v>
+        <v>0.5845951883992569</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6287026137258157</v>
+        <v>0.6295484405807578</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1152</v>
@@ -5254,19 +5254,19 @@
         <v>1191378</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1147309</v>
+        <v>1150831</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1237410</v>
+        <v>1237465</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6003765093720862</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5781687866573704</v>
+        <v>0.579943282783878</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6235736771645528</v>
+        <v>0.6236012334698194</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2342</v>
@@ -5275,19 +5275,19 @@
         <v>2447034</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2384419</v>
+        <v>2377754</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2513091</v>
+        <v>2511388</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.603452947818759</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5880118281285842</v>
+        <v>0.5863681413867875</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6197430711314152</v>
+        <v>0.6193231922833821</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>544974</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>503659</v>
+        <v>504854</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>585753</v>
+        <v>584182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2631873268234673</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2432349663635543</v>
+        <v>0.2438121185038523</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2828812245944546</v>
+        <v>0.2821226149004368</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>506</v>
@@ -5325,19 +5325,19 @@
         <v>536781</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>497121</v>
+        <v>496129</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>575626</v>
+        <v>578189</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.270502603183944</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2505165764759553</v>
+        <v>0.2500166427631583</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2900778073310633</v>
+        <v>0.291369200468484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1014</v>
@@ -5346,19 +5346,19 @@
         <v>1081755</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1025329</v>
+        <v>1027679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1137128</v>
+        <v>1136107</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2667671379176264</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2528522323325251</v>
+        <v>0.2534317149665879</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2804223846357486</v>
+        <v>0.2801707479776677</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>21503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12969</v>
+        <v>13770</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33973</v>
+        <v>35391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01038443919497135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006263366350775205</v>
+        <v>0.006649922004027245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01640701831570177</v>
+        <v>0.01709144500260416</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -5396,19 +5396,19 @@
         <v>30984</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21311</v>
+        <v>21491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43616</v>
+        <v>45061</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01561379795683547</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01073955969437727</v>
+        <v>0.01083023224042345</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02197947603724331</v>
+        <v>0.02270783173745301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -5417,19 +5417,19 @@
         <v>52487</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>39540</v>
+        <v>39211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69850</v>
+        <v>70168</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0129434835274864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009750743070010785</v>
+        <v>0.009669728254241087</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0172253613927409</v>
+        <v>0.01730393531533842</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>5894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13441</v>
+        <v>13836</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01079850537248385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004033145947662979</v>
+        <v>0.004031228447247564</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02462630116854495</v>
+        <v>0.02534984577412236</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -5542,19 +5542,19 @@
         <v>12667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6681</v>
+        <v>6989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21795</v>
+        <v>21563</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02306656314405373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01216659663522319</v>
+        <v>0.01272702723524927</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03968866481081026</v>
+        <v>0.03926676874045209</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -5563,19 +5563,19 @@
         <v>18561</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11420</v>
+        <v>11505</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30462</v>
+        <v>31633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01695125715114793</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01042980532283356</v>
+        <v>0.01050710780206193</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02782084460583088</v>
+        <v>0.0288904732195157</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>45598</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33115</v>
+        <v>32857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61482</v>
+        <v>59822</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0835434417221213</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06067268229794482</v>
+        <v>0.06019982401060033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1126453305761026</v>
+        <v>0.1096048486240513</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -5613,19 +5613,19 @@
         <v>43757</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31503</v>
+        <v>30814</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56585</v>
+        <v>56987</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07968266046660892</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05736756801603311</v>
+        <v>0.05611345488655076</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1030437803878625</v>
+        <v>0.1037756960331521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -5634,19 +5634,19 @@
         <v>89355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72813</v>
+        <v>72352</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>108446</v>
+        <v>108797</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08160715896415</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06649954147840778</v>
+        <v>0.0660781530676756</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09904283154754784</v>
+        <v>0.0993635398472921</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>342030</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>317909</v>
+        <v>317331</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>364809</v>
+        <v>363703</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6266604950439522</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5824656993478339</v>
+        <v>0.5814079223501198</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6683956152184256</v>
+        <v>0.6663696632110511</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>317</v>
@@ -5684,19 +5684,19 @@
         <v>326507</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>303808</v>
+        <v>304284</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>349861</v>
+        <v>349701</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5945790463686096</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5532431177353543</v>
+        <v>0.5541096697605433</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6371065917771572</v>
+        <v>0.6368156892829667</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>633</v>
@@ -5705,19 +5705,19 @@
         <v>668538</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>636047</v>
+        <v>633751</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>699734</v>
+        <v>699723</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6105708096125088</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5808971534593049</v>
+        <v>0.5788001227048546</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6390621600959004</v>
+        <v>0.6390522979487173</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>146917</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>127465</v>
+        <v>126992</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170344</v>
+        <v>170803</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.269178673065861</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2335385964190017</v>
+        <v>0.2326724801470816</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3121001517417719</v>
+        <v>0.3129410000912111</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>147</v>
@@ -5755,19 +5755,19 @@
         <v>159296</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>139605</v>
+        <v>139417</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>180657</v>
+        <v>181900</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2900833968361934</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2542242267612136</v>
+        <v>0.2538830392466101</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3289820153754276</v>
+        <v>0.331244691214134</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>281</v>
@@ -5776,19 +5776,19 @@
         <v>306214</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>278031</v>
+        <v>276186</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>336794</v>
+        <v>341878</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2796629386892641</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2539236266820619</v>
+        <v>0.2522386787958151</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.307591440216725</v>
+        <v>0.3122351446057893</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>5359</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1743</v>
+        <v>1823</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13401</v>
+        <v>13630</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009818884795581772</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003193375686180193</v>
+        <v>0.003339888221761833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02455335544281827</v>
+        <v>0.02497292974509219</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -5826,19 +5826,19 @@
         <v>6913</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3036</v>
+        <v>3012</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14724</v>
+        <v>13802</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01258833318453435</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005528385406842103</v>
+        <v>0.005485820102372682</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02681361146687467</v>
+        <v>0.02513316293300218</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -5847,19 +5847,19 @@
         <v>12272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6610</v>
+        <v>6744</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22431</v>
+        <v>22877</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01120783558292925</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00603642577828946</v>
+        <v>0.006159285870679047</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02048597140929932</v>
+        <v>0.02089320713079864</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>52811</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38332</v>
+        <v>40264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68163</v>
+        <v>70808</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01567590238464528</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01137819996969934</v>
+        <v>0.01195169655179849</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02023288409386284</v>
+        <v>0.02101792100810131</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -5972,19 +5972,19 @@
         <v>53376</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39337</v>
+        <v>38906</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68686</v>
+        <v>69389</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01514213753559079</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01115948656446088</v>
+        <v>0.01103716529014664</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01948548933380947</v>
+        <v>0.01968489588540923</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -5993,19 +5993,19 @@
         <v>106187</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>87989</v>
+        <v>87337</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128614</v>
+        <v>129350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01540297799677005</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01276327616605337</v>
+        <v>0.01266871801592219</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01865611216779396</v>
+        <v>0.01876289649236262</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>327229</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>294301</v>
+        <v>294657</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>365796</v>
+        <v>362729</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09713124124468411</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08735725727605187</v>
+        <v>0.08746295030010813</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1085791220937813</v>
+        <v>0.1076688887599326</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>291</v>
@@ -6043,19 +6043,19 @@
         <v>305359</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>270438</v>
+        <v>272671</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>337094</v>
+        <v>338496</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08662655860498264</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07672005421015124</v>
+        <v>0.07735334738573173</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09562934578046267</v>
+        <v>0.09602701765066782</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>596</v>
@@ -6064,19 +6064,19 @@
         <v>632588</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>586424</v>
+        <v>583831</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>686850</v>
+        <v>680894</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09175999193079112</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08506369168272118</v>
+        <v>0.08468763344508151</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09963105632552979</v>
+        <v>0.09876704581515586</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>2046520</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1986813</v>
+        <v>1989197</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2100474</v>
+        <v>2104972</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6074685608210644</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5897455904465098</v>
+        <v>0.5904532944816068</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6234837095120853</v>
+        <v>0.6248187353406387</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2002</v>
@@ -6114,19 +6114,19 @@
         <v>2112210</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2050940</v>
+        <v>2050542</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2173157</v>
+        <v>2168180</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5992079384784741</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.581826174035437</v>
+        <v>0.581713407597326</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6164977354952305</v>
+        <v>0.6150857851881433</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3967</v>
@@ -6135,19 +6135,19 @@
         <v>4158731</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4076682</v>
+        <v>4073836</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4239109</v>
+        <v>4237733</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6032447433472955</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5913431480364084</v>
+        <v>0.5909302359330072</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6149039643581713</v>
+        <v>0.614704351596691</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>902241</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>855549</v>
+        <v>854887</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>961401</v>
+        <v>956020</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2678120687267783</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2539527348844206</v>
+        <v>0.2537560905342686</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2853726539265821</v>
+        <v>0.2837752522759119</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>916</v>
@@ -6185,19 +6185,19 @@
         <v>991178</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>933101</v>
+        <v>937196</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1043275</v>
+        <v>1048909</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2811848711524037</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2647092393054873</v>
+        <v>0.2658707701165263</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2959641719722218</v>
+        <v>0.2975624331722005</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1768</v>
@@ -6206,19 +6206,19 @@
         <v>1893419</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1820306</v>
+        <v>1821445</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1966648</v>
+        <v>1966629</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.274649843680778</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2640444391395135</v>
+        <v>0.2642097163218465</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2852721436196211</v>
+        <v>0.2852693445299825</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>40131</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28702</v>
+        <v>28254</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>55674</v>
+        <v>54242</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01191222682282798</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008519684429238247</v>
+        <v>0.00838658298133973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01652559938293009</v>
+        <v>0.01610078188230872</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>59</v>
@@ -6256,19 +6256,19 @@
         <v>62881</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49022</v>
+        <v>48612</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80651</v>
+        <v>80393</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01783849422854872</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01390695055560256</v>
+        <v>0.01379066665304775</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02287978693797511</v>
+        <v>0.02280640457282066</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>94</v>
@@ -6277,19 +6277,19 @@
         <v>103012</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>81876</v>
+        <v>84322</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>125156</v>
+        <v>125236</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01494244304436521</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01187657748823348</v>
+        <v>0.0122312720822446</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01815444241768609</v>
+        <v>0.01816615430043837</v>
       </c>
     </row>
     <row r="27">
